--- a/job/templates/Daily-Export-Template.xlsx
+++ b/job/templates/Daily-Export-Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Project</t>
   </si>
@@ -69,6 +69,13 @@
   </si>
   <si>
     <t>Ambient Temp (Degrees C)</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>Daily Expected
+kWh</t>
   </si>
 </sst>
 </file>
@@ -121,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -130,6 +137,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -436,24 +449,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="36.7109375" customWidth="1"/>
+    <col min="2" max="7" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -461,31 +474,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -498,10 +514,13 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -509,7 +528,7 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="2">
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
